--- a/parabank_testcases.xlsx
+++ b/parabank_testcases.xlsx
@@ -164,7 +164,7 @@
 Security should be maintained</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Fail[Unhandled status code is reached ]</t>
   </si>
   <si>
     <t>@logout @security @parabank</t>
